--- a/common_learn/烟羽模型/data/demo1.xlsx
+++ b/common_learn/烟羽模型/data/demo1.xlsx
@@ -1420,7 +1420,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -1521,7 +1521,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -1559,7 +1559,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN"/>
         </a:p>
